--- a/results/minimal_seats-Canada.xlsx
+++ b/results/minimal_seats-Canada.xlsx
@@ -19,31 +19,31 @@
     <t>Key</t>
   </si>
   <si>
-    <t xml:space="preserve">BQ </t>
-  </si>
-  <si>
-    <t>Ind</t>
-  </si>
-  <si>
-    <t>Lib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC </t>
-  </si>
-  <si>
-    <t>RPC</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
-    <t>Con</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP </t>
+    <t>BQ - Bloc Québécois (Bloc Québécois, BQ)</t>
+  </si>
+  <si>
+    <t>Ind - Independents (Independents, Ind)</t>
+  </si>
+  <si>
+    <t>Lib - Liberal  (Liberal , Lib)</t>
+  </si>
+  <si>
+    <t>ND - New Democratic (New Democratic, ND)</t>
+  </si>
+  <si>
+    <t>PC - Progressive Conservative  (Progressive Conservative , PC)</t>
+  </si>
+  <si>
+    <t>RPC/RP - Reform Party of Canada / Canadian Alliance (Reform Party of Canada / Canadian Alliance, RPC/RP)</t>
+  </si>
+  <si>
+    <t>None - No-Affiliation (No-Affiliation, None)</t>
+  </si>
+  <si>
+    <t>Con - Conservative (Conservative, Con)</t>
+  </si>
+  <si>
+    <t>GP - Green Party of Canada (Green Party of Canada, GP)</t>
   </si>
   <si>
     <t>1993</t>
